--- a/test-data/samplesheet_full.xlsx
+++ b/test-data/samplesheet_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/sambashare/Bulk_RNA_seq/test-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/umran_home/Bulk_RNA_seq/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{211DEEA0-88FF-6246-8D20-EFDFC07E63F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87ACECC-0BD2-9F4A-B443-E13C4D414A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="1840" windowWidth="28040" windowHeight="17440" xr2:uid="{F9AFB0F9-B49B-C54A-9BFE-6EA7B6CF6736}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{F9AFB0F9-B49B-C54A-9BFE-6EA7B6CF6736}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{7999E3C7-3399-2D44-9BDE-36EAF74B7F61}" name="samplesheet_full" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Volumes/sambashare/Bulk_RNA_seq/test-data/samplesheet_full.csv" comma="1">
+    <textPr sourceFile="/Volumes/sambashare/Bulk_RNA_seq/test-data/samplesheet_full.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>group</t>
   </si>
@@ -160,16 +160,28 @@
   </si>
   <si>
     <t>sample_id</t>
+  </si>
+  <si>
+    <t>genome</t>
+  </si>
+  <si>
+    <t>hg38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -535,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB189A2D-C97B-094D-BAB4-21B9A9D23AB1}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,7 +562,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,8 +581,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -589,8 +604,11 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -609,8 +627,11 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -629,8 +650,11 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -649,8 +673,11 @@
       <c r="F5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -669,8 +696,11 @@
       <c r="F6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -689,8 +719,11 @@
       <c r="F7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -709,8 +742,11 @@
       <c r="F8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -729,8 +765,12 @@
       <c r="F9" t="s">
         <v>8</v>
       </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>